--- a/data/trans_orig/ALTURA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ALTURA-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Altura media en cm</t>
+          <t>Altura media en cm (tasa de respuesta: 98,31%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/ALTURA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ALTURA-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>169,24</t>
+          <t>170,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>158,27</t>
+          <t>157,93</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>162,4</t>
+          <t>162,65</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>168,17; 170,38</t>
+          <t>169,05; 171,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>168,72; 170,33</t>
+          <t>168,7; 170,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>167,14; 171,87</t>
+          <t>167,33; 171,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>157,47; 158,91</t>
+          <t>156,95; 158,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>157,85; 159,79</t>
+          <t>157,83; 159,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>155,6; 158,73</t>
+          <t>155,68; 158,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>161,69; 163,22</t>
+          <t>161,69; 163,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>161,96; 163,62</t>
+          <t>161,97; 163,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>161,58; 164,9</t>
+          <t>161,72; 164,84</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>173,84</t>
+          <t>174,46</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>161,67</t>
+          <t>162,19</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>167,69</t>
+          <t>168,43</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>173,41; 174,3</t>
+          <t>173,96; 174,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>173,86; 178,47</t>
+          <t>173,9; 178,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>173,2; 174,34</t>
+          <t>173,21; 174,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>161,27; 162,03</t>
+          <t>161,74; 162,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>158,75; 162,46</t>
+          <t>158,69; 162,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>159,88; 161,0</t>
+          <t>159,91; 160,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>167,34; 168,07</t>
+          <t>168,03; 168,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>165,46; 170,93</t>
+          <t>165,67; 171,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>166,64; 167,68</t>
+          <t>166,68; 167,74</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>176,05</t>
+          <t>176,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>163,34</t>
+          <t>163,7</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>168,82</t>
+          <t>169,38</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>175,42; 176,65</t>
+          <t>175,67; 176,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>174,8; 176,06</t>
+          <t>174,9; 176,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>175,32; 176,72</t>
+          <t>175,38; 176,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>162,82; 163,86</t>
+          <t>163,05; 164,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>163,11; 164,12</t>
+          <t>163,12; 164,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>162,83; 163,93</t>
+          <t>162,73; 163,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>168,2; 169,35</t>
+          <t>168,78; 169,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>169,15; 170,28</t>
+          <t>169,15; 170,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>168,46; 169,61</t>
+          <t>168,42; 169,59</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>173,8</t>
+          <t>174,56</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>161,53</t>
+          <t>162,05</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>167,19</t>
+          <t>168,01</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>173,43; 174,15</t>
+          <t>174,21; 174,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>173,74; 177,32</t>
+          <t>173,68; 177,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>173,45; 174,46</t>
+          <t>173,41; 174,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>161,26; 161,82</t>
+          <t>161,68; 162,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>159,46; 162,08</t>
+          <t>159,4; 162,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>160,71; 161,51</t>
+          <t>160,72; 161,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>166,91; 167,51</t>
+          <t>167,66; 168,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>166,16; 170,18</t>
+          <t>166,19; 170,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>166,87; 167,7</t>
+          <t>166,87; 167,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/ALTURA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ALTURA-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>169,97</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>169,78</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>171,91</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>170,18</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>169,53</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>171,91</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>169,78</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>159,6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>156,97</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>159,07</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>157,93</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>159,18</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>159,07</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>156,97</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>163,49</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>163,24</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>164,79</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>162,65</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>163,01</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>164,79</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>163,24</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>169,11; 170,77</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>167,33; 171,74</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>171,19; 172,6</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>169,05; 171,55</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>168,7; 170,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>171,19; 172,6</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>167,33; 171,74</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>159,09; 160,06</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>155,68; 158,74</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>158,52; 159,61</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>156,95; 158,81</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>157,83; 159,81</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>158,52; 159,61</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>155,68; 158,74</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>162,95; 164,05</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>161,72; 164,84</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>164,15; 165,48</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>161,69; 163,64</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>161,97; 163,58</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>164,15; 165,48</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>161,72; 164,84</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>173,94</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>173,78</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>175,21</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>174,46</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>175,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>175,21</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>173,78</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>162,44</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>160,44</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>162,2</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>162,19</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>160,87</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>162,2</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>160,44</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>168,24</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>167,16</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>168,68</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>168,43</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>168,21</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>168,68</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>167,16</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>173,53; 174,4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>173,21; 174,32</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>174,87; 175,61</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>173,96; 174,94</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>173,9; 178,09</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>174,87; 175,61</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>173,21; 174,32</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>162,08; 162,77</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>159,91; 160,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>161,86; 162,56</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>161,74; 162,67</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>158,69; 162,44</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>161,86; 162,56</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>159,91; 160,95</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>167,86; 168,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>166,68; 167,74</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>168,34; 169,06</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>168,03; 168,89</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>165,67; 171,75</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>168,34; 169,06</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>166,68; 167,74</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>175,45</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>176,1</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>177,27</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>176,34</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>175,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>177,27</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>176,1</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>163,64</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>163,35</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>163,93</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>163,7</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>163,61</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>163,93</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>163,35</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>169,66</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>169,02</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>170,29</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>169,38</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>169,69</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>170,29</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>169,02</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>174,81; 176,06</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>175,38; 176,74</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>176,71; 177,8</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>175,67; 176,97</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>174,9; 176,13</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>176,71; 177,8</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>175,38; 176,74</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>163,15; 164,17</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>162,73; 163,89</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>163,49; 164,33</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>163,05; 164,28</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>163,12; 164,11</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>163,49; 164,33</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>162,73; 163,89</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>169,16; 170,26</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>168,42; 169,59</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>169,78; 170,9</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>168,78; 169,99</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>169,15; 170,26</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>169,78; 170,9</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>168,42; 169,59</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>173,84</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>173,99</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>175,26</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>174,56</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>174,81</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>175,26</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>173,99</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>162,17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>161,09</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>162,13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>162,05</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>161,13</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>162,13</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>161,09</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>167,83</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>167,29</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>168,48</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>168,01</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>167,8</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>168,48</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>167,29</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>173,48; 174,19</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>173,41; 174,46</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>174,97; 175,56</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>174,21; 174,97</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>173,68; 177,39</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>174,97; 175,56</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>173,41; 174,46</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>161,91; 162,43</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>160,72; 161,56</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>161,86; 162,4</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>161,68; 162,4</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>159,4; 162,07</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>161,86; 162,4</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>160,72; 161,56</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>167,54; 168,12</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>166,87; 167,68</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>168,23; 168,77</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>167,66; 168,36</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>166,19; 170,08</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>168,23; 168,77</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>166,87; 167,68</t>
         </is>
       </c>
     </row>
